--- a/src/test/resources/xlsx/books.xlsx
+++ b/src/test/resources/xlsx/books.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/walter/project/xlsx-reader/src/test/resources/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58AF83FC-37CC-294A-B6C3-BBD6C7CBE3D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95576CBE-0536-E34F-9049-8B9BFB77EFA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="980" yWindow="760" windowWidth="28240" windowHeight="17340" xr2:uid="{45A2433F-DDF2-D84F-B32C-D21A8E47DC33}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="74">
   <si>
     <t>BOOKS</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -68,8 +68,225 @@
     <t>红楼梦</t>
   </si>
   <si>
+    <t>ISBN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9787020002207</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1996-12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>活着</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2012-8-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20.00元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>作家出版社</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9787506365437</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>百年孤独</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>39.50元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">南海出版公司 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2011-6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9787544253994</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1984</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9787530210291</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">北京十月文艺出版社 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2010-4-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>28.00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三体全集</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>168.00元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9787229042066</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">重庆出版社 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2012-1-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>哈利·波特</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">人民文学出版社 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>498.00元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2008-12-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9787020096695</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三国演义</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人民文学出版社</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1998-05</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9787020008728</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2003-8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>22.00元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小王子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9787020042494</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>呐喊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.36元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1973-3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10019-1979</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人类简史</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>68.00元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">中信出版社 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2014-11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9787508647357</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <r>
-      <t>[清] 曹雪芹 著</t>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF111111"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>59.70</t>
     </r>
     <r>
       <rPr>
@@ -78,318 +295,151 @@
         <rFont val="Helvetica"/>
         <family val="2"/>
       </rPr>
-      <t> / </t>
+      <t>元</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[以色列] 尤瓦尔·赫拉利</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鲁迅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[法国] 安东尼·德·圣-埃克苏佩里</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>J.K.罗琳 (J.K.Rowling)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘慈欣</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[英] 乔治·奥威尔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[哥伦比亚] 加西亚·马尔克斯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>余华</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF3377AA"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>[</t>
     </r>
     <r>
       <rPr>
         <sz val="13"/>
         <color rgb="FF3377AA"/>
-        <rFont val="Helvetica"/>
+        <rFont val="Microsoft YaHei"/>
         <family val="2"/>
+        <charset val="134"/>
       </rPr>
-      <t>高鹗 续</t>
+      <t>清</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF3377AA"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">] </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF3377AA"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>曹雪芹</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF3377AA"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF3377AA"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>著</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF3377AA"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
         <sz val="13"/>
         <color rgb="FF111111"/>
-        <rFont val="Helvetica"/>
-        <family val="2"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
       </rPr>
-      <t> </t>
-    </r>
-  </si>
-  <si>
-    <t>59.70元</t>
-  </si>
-  <si>
-    <r>
-      <t>人民文学出版社</t>
+      <t xml:space="preserve">/ </t>
     </r>
     <r>
       <rPr>
-        <u/>
-        <sz val="12"/>
-        <color theme="10"/>
-        <rFont val="等线"/>
-        <family val="4"/>
+        <sz val="13"/>
+        <color rgb="FF3377AA"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
-      <t> </t>
-    </r>
-  </si>
-  <si>
-    <t>ISBN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>9787020002207</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1996-12</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>活着</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2012-8-1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20.00元</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>作家出版社</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>9787506365437</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>余华</t>
+      <t>高鹗</t>
     </r>
     <r>
       <rPr>
-        <u/>
-        <sz val="12"/>
-        <color theme="10"/>
-        <rFont val="等线"/>
-        <family val="4"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
+        <sz val="13"/>
+        <color rgb="FF3377AA"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
       </rPr>
-      <t> </t>
-    </r>
-  </si>
-  <si>
-    <t>百年孤独</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> [哥伦比亚] 加西亚·马尔克斯 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>39.50元</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">南海出版公司 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2011-6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>9787544253994</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1984</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>9787530210291</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">北京十月文艺出版社 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2010-4-1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>28.00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> [英] 乔治·奥威尔 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>刘慈欣</t>
+      <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
-        <u/>
-        <sz val="12"/>
-        <color theme="10"/>
-        <rFont val="等线"/>
-        <family val="4"/>
+        <sz val="13"/>
+        <color rgb="FF3377AA"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
-      <t> </t>
+      <t>续</t>
     </r>
-  </si>
-  <si>
-    <t>三体全集</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>168.00元</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>9787229042066</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">重庆出版社 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2012-1-1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>哈利·波特</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">J.K.罗琳 (J.K.Rowling) </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">人民文学出版社 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>498.00元</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2008-12-1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>9787020096695</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>三国演义</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> [明] 罗贯中 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>人民文学出版社</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1998-05</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>9787020008728</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2003-8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>22.00元</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">[法国] 安东尼·德·圣-埃克苏佩里 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小王子</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>9787020042494</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>呐喊</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">鲁迅 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.36元</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1973-3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10019-1979</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>人类简史</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">[以色列] 尤瓦尔·赫拉利 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>68.00元</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">中信出版社 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2014-11</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>9787508647357</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[明] 罗贯中</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -397,7 +447,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10">
+  <fonts count="13">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -437,12 +487,6 @@
     </font>
     <font>
       <sz val="13"/>
-      <color rgb="FF3377AA"/>
-      <name val="Helvetica"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="13"/>
       <color rgb="FF111111"/>
       <name val="Helvetica"/>
       <family val="2"/>
@@ -457,19 +501,41 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="12"/>
-      <color theme="10"/>
-      <name val="等线"/>
-      <family val="4"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color rgb="FF3377AA"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color rgb="FF111111"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color rgb="FF3377AA"/>
+      <name val="Helvetica"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color rgb="FF111111"/>
+      <name val="Helvetica"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color rgb="FF3377AA"/>
+      <name val="Microsoft YaHei"/>
       <family val="2"/>
       <charset val="134"/>
     </font>
@@ -516,11 +582,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -530,7 +596,7 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
@@ -539,17 +605,20 @@
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1">
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -869,7 +938,7 @@
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="118" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -897,256 +966,256 @@
       <c r="G1" s="8"/>
     </row>
     <row r="2" spans="1:7" s="2" customFormat="1" ht="27">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="9" t="s">
-        <v>11</v>
+      <c r="G2" s="7" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="33">
       <c r="A3" s="1" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="6" t="s">
+      <c r="C3" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="19">
       <c r="A4" s="1" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="F4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="19">
       <c r="A5" s="1" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="19">
       <c r="A6" s="1" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>31</v>
+        <v>69</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="19">
       <c r="A7" s="1" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>32</v>
+        <v>68</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="19">
       <c r="A8" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>51</v>
-      </c>
       <c r="E8" s="1" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="19">
       <c r="A9" s="1" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>55</v>
+        <v>73</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="19">
       <c r="A10" s="1" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="E10" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F10" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="F10" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="G10" s="1" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="19">
       <c r="A11" s="1" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>65</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="19">
       <c r="A12" s="1" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/xlsx/books.xlsx
+++ b/src/test/resources/xlsx/books.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/walter/project/xlsx-reader/src/test/resources/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95576CBE-0536-E34F-9049-8B9BFB77EFA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14480B18-1631-384D-A892-9A1ABC825E0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="980" yWindow="760" windowWidth="28240" windowHeight="17340" xr2:uid="{45A2433F-DDF2-D84F-B32C-D21A8E47DC33}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19620" activeTab="1" xr2:uid="{45A2433F-DDF2-D84F-B32C-D21A8E47DC33}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="76">
   <si>
     <t>BOOKS</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -442,12 +443,48 @@
     <t>[明] 罗贯中</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF3377AA"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>曹雪芹</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF3377AA"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF3377AA"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>著</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>J.K.罗琳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13">
+  <fonts count="14">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -539,6 +576,13 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="13"/>
+      <color rgb="FF3377AA"/>
+      <name val="Helvetica"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -586,7 +630,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -611,14 +655,17 @@
     <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -937,8 +984,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84C85D40-16BE-6649-A109-04658BC31D88}">
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="118" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView zoomScale="118" workbookViewId="0">
+      <selection sqref="A1:G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -955,15 +1002,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="18" customHeight="1">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
     </row>
     <row r="2" spans="1:7" s="2" customFormat="1" ht="27">
       <c r="A2" s="7" t="s">
@@ -995,10 +1042,10 @@
       <c r="B3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="9" t="s">
         <v>63</v>
       </c>
       <c r="E3" s="6" t="s">
@@ -1230,4 +1277,298 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A05FA89-AA38-BA43-B186-1792A46490AA}">
+  <dimension ref="I20:O31"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="K42" sqref="K42"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="10" max="10" width="31.1640625" customWidth="1"/>
+    <col min="11" max="11" width="44.83203125" customWidth="1"/>
+    <col min="12" max="12" width="35.33203125" customWidth="1"/>
+    <col min="15" max="15" width="30.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="20" spans="9:15" ht="26">
+      <c r="I20" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="J20" s="11"/>
+      <c r="K20" s="11"/>
+      <c r="L20" s="11"/>
+      <c r="M20" s="11"/>
+      <c r="N20" s="11"/>
+      <c r="O20" s="11"/>
+    </row>
+    <row r="21" spans="9:15" ht="27">
+      <c r="I21" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="J21" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="L21" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="M21" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="N21" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="O21" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="9:15" ht="33">
+      <c r="I22" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J22" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="K22" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="L22" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="M22" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="N22" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="O22" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="9:15" ht="19">
+      <c r="I23" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K23" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="L23" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="M23" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="N23" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O23" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" spans="9:15" ht="38">
+      <c r="I24" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="L24" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="M24" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="N24" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="O24" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="9:15" ht="38">
+      <c r="I25" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K25" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="L25" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="M25" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N25" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="O25" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="26" spans="9:15" ht="19">
+      <c r="I26" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K26" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="L26" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="M26" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="N26" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="O26" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="27" spans="9:15" ht="38">
+      <c r="I27" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K27" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="L27" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="M27" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N27" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="O27" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="28" spans="9:15" ht="38">
+      <c r="I28" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="K28" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="L28" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="M28" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="N28" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="O28" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="29" spans="9:15" ht="38">
+      <c r="I29" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="K29" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="L29" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="M29" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N29" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="O29" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="30" spans="9:15" ht="38">
+      <c r="I30" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="K30" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="L30" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="M30" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N30" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="O30" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="31" spans="9:15" ht="19">
+      <c r="I31" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="K31" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="L31" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="M31" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="N31" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="O31" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="I20:O20"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="M22" r:id="rId1" display="https://book.douban.com/press/2287" xr:uid="{CFE2ED07-66F3-1542-A4E9-0BB5AB9A858D}"/>
+    <hyperlink ref="K23" r:id="rId2" display="https://book.douban.com/author/4503668" xr:uid="{239E9351-861F-2341-BDDD-CF03701AF9BE}"/>
+    <hyperlink ref="K26" r:id="rId3" display="https://book.douban.com/search/%E5%88%98%E6%85%88%E6%AC%A3" xr:uid="{746AA726-34E1-7D4A-8819-9762235A19C1}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/src/test/resources/xlsx/books.xlsx
+++ b/src/test/resources/xlsx/books.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/walter/project/xlsx-reader/src/test/resources/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14480B18-1631-384D-A892-9A1ABC825E0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0882C494-5190-244F-A198-084FF0F2F07D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19620" activeTab="1" xr2:uid="{45A2433F-DDF2-D84F-B32C-D21A8E47DC33}"/>
+    <workbookView xWindow="6920" yWindow="1560" windowWidth="26780" windowHeight="12380" activeTab="2" xr2:uid="{45A2433F-DDF2-D84F-B32C-D21A8E47DC33}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="rand" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="82">
   <si>
     <t>BOOKS</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -477,6 +478,30 @@
   </si>
   <si>
     <t>J.K.罗琳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>b</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>d</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>e</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1283,8 +1308,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A05FA89-AA38-BA43-B186-1792A46490AA}">
   <dimension ref="I20:O31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="K42" sqref="K42"/>
+    <sheetView topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="I20" sqref="I20:O31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1571,4 +1596,253 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5E05C86-D406-914A-B64F-0A588FB67039}">
+  <dimension ref="G17:L25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="C9" workbookViewId="0">
+      <selection activeCell="M24" sqref="M24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="8" max="8" width="14" customWidth="1"/>
+    <col min="12" max="12" width="23.1640625" customWidth="1"/>
+    <col min="13" max="13" width="33.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="17" spans="7:12">
+      <c r="G17" t="s">
+        <v>76</v>
+      </c>
+      <c r="H17" t="s">
+        <v>77</v>
+      </c>
+      <c r="I17" t="s">
+        <v>78</v>
+      </c>
+      <c r="J17" t="s">
+        <v>79</v>
+      </c>
+      <c r="K17" t="s">
+        <v>80</v>
+      </c>
+      <c r="L17" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="18" spans="7:12">
+      <c r="G18">
+        <v>1</v>
+      </c>
+      <c r="H18" t="str">
+        <f>_xlfn.CONCAT( H17,G18)</f>
+        <v>a1</v>
+      </c>
+      <c r="I18" t="str">
+        <f>_xlfn.CONCAT(I17,G18)</f>
+        <v>b1</v>
+      </c>
+      <c r="J18" t="str">
+        <f>_xlfn.CONCAT(J17,G18)</f>
+        <v>c1</v>
+      </c>
+      <c r="K18" t="str">
+        <f>_xlfn.CONCAT(K17,G18)</f>
+        <v>d1</v>
+      </c>
+      <c r="L18" t="str">
+        <f>_xlfn.CONCAT(L17,G18)</f>
+        <v>e1</v>
+      </c>
+    </row>
+    <row r="19" spans="7:12">
+      <c r="G19">
+        <f t="shared" ref="G19:G25" si="0">G18+1</f>
+        <v>2</v>
+      </c>
+      <c r="H19" t="str">
+        <f t="shared" ref="H19:H25" si="1">_xlfn.CONCAT( H18,G19)</f>
+        <v>a12</v>
+      </c>
+      <c r="I19" t="str">
+        <f t="shared" ref="I19:I25" si="2">_xlfn.CONCAT(I18,G19)</f>
+        <v>b12</v>
+      </c>
+      <c r="J19" t="str">
+        <f t="shared" ref="J19:J25" si="3">_xlfn.CONCAT(J18,G19)</f>
+        <v>c12</v>
+      </c>
+      <c r="K19" t="str">
+        <f t="shared" ref="K19:K25" si="4">_xlfn.CONCAT(K18,G19)</f>
+        <v>d12</v>
+      </c>
+      <c r="L19" t="str">
+        <f t="shared" ref="L19:L25" si="5">_xlfn.CONCAT(L18,G19)</f>
+        <v>e12</v>
+      </c>
+    </row>
+    <row r="20" spans="7:12">
+      <c r="G20">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="H20" t="str">
+        <f t="shared" si="1"/>
+        <v>a123</v>
+      </c>
+      <c r="I20" t="str">
+        <f t="shared" si="2"/>
+        <v>b123</v>
+      </c>
+      <c r="J20" t="str">
+        <f t="shared" si="3"/>
+        <v>c123</v>
+      </c>
+      <c r="K20" t="str">
+        <f t="shared" si="4"/>
+        <v>d123</v>
+      </c>
+      <c r="L20" t="str">
+        <f t="shared" si="5"/>
+        <v>e123</v>
+      </c>
+    </row>
+    <row r="21" spans="7:12">
+      <c r="G21">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="H21" t="str">
+        <f t="shared" si="1"/>
+        <v>a1234</v>
+      </c>
+      <c r="I21" t="str">
+        <f t="shared" si="2"/>
+        <v>b1234</v>
+      </c>
+      <c r="J21" t="str">
+        <f t="shared" si="3"/>
+        <v>c1234</v>
+      </c>
+      <c r="K21" t="str">
+        <f t="shared" si="4"/>
+        <v>d1234</v>
+      </c>
+      <c r="L21" t="str">
+        <f t="shared" si="5"/>
+        <v>e1234</v>
+      </c>
+    </row>
+    <row r="22" spans="7:12">
+      <c r="G22">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="H22" t="str">
+        <f t="shared" si="1"/>
+        <v>a12345</v>
+      </c>
+      <c r="I22" t="str">
+        <f t="shared" si="2"/>
+        <v>b12345</v>
+      </c>
+      <c r="J22" t="str">
+        <f t="shared" si="3"/>
+        <v>c12345</v>
+      </c>
+      <c r="K22" t="str">
+        <f t="shared" si="4"/>
+        <v>d12345</v>
+      </c>
+      <c r="L22" t="str">
+        <f t="shared" si="5"/>
+        <v>e12345</v>
+      </c>
+    </row>
+    <row r="23" spans="7:12">
+      <c r="G23">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="H23" t="str">
+        <f t="shared" si="1"/>
+        <v>a123456</v>
+      </c>
+      <c r="I23" t="str">
+        <f t="shared" si="2"/>
+        <v>b123456</v>
+      </c>
+      <c r="J23" t="str">
+        <f t="shared" si="3"/>
+        <v>c123456</v>
+      </c>
+      <c r="K23" t="str">
+        <f t="shared" si="4"/>
+        <v>d123456</v>
+      </c>
+      <c r="L23" t="str">
+        <f t="shared" si="5"/>
+        <v>e123456</v>
+      </c>
+    </row>
+    <row r="24" spans="7:12">
+      <c r="G24">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="H24" t="str">
+        <f t="shared" si="1"/>
+        <v>a1234567</v>
+      </c>
+      <c r="I24" t="str">
+        <f t="shared" si="2"/>
+        <v>b1234567</v>
+      </c>
+      <c r="J24" t="str">
+        <f t="shared" si="3"/>
+        <v>c1234567</v>
+      </c>
+      <c r="K24" t="str">
+        <f t="shared" si="4"/>
+        <v>d1234567</v>
+      </c>
+      <c r="L24" t="str">
+        <f t="shared" si="5"/>
+        <v>e1234567</v>
+      </c>
+    </row>
+    <row r="25" spans="7:12">
+      <c r="G25">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="H25" t="str">
+        <f t="shared" si="1"/>
+        <v>a12345678</v>
+      </c>
+      <c r="I25" t="str">
+        <f t="shared" si="2"/>
+        <v>b12345678</v>
+      </c>
+      <c r="J25" t="str">
+        <f t="shared" si="3"/>
+        <v>c12345678</v>
+      </c>
+      <c r="K25" t="str">
+        <f t="shared" si="4"/>
+        <v>d12345678</v>
+      </c>
+      <c r="L25" t="str">
+        <f t="shared" si="5"/>
+        <v>e12345678</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
 </file>